--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3DFE2-7785-4B7D-844E-F87B12CA9212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -149,7 +154,7 @@
     <t>0,5W   Obudowa(2010)</t>
   </si>
   <si>
-    <t>CRS2010AFX-1001ELF </t>
+    <t>CRS2010AFX-1001ELF</t>
   </si>
   <si>
     <t>https://pl.mouser.com/ProductDetail/Bourns/CRS2010AFX-1001ELF?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIpobI7qqEI8Dfyt7VHVWMFw%3D%3D</t>
@@ -554,11 +559,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -567,25 +569,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -593,7 +577,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -617,7 +601,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -625,73 +609,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -750,33 +690,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="148.525510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="10.42578125"/>
+    <col min="2" max="3" width="8.7109375"/>
+    <col min="4" max="4" width="25.7109375"/>
+    <col min="5" max="5" width="22.5703125"/>
+    <col min="6" max="6" width="148.5703125"/>
+    <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,272 +1044,272 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>22</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>22</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1071,531 +1319,531 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>430</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>470</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>270</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>470</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>78</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>82</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>82</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>82</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>82</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>82</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>92</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="0" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>96</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>96</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>96</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="0" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="0" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>108</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="0" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>116</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>121</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="0" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>125</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="0" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>125</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>129</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -1605,51 +1853,51 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="0" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>130</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="0" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>129</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>130</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>136</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -1659,14 +1907,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="0" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>140</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -1676,17 +1924,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>136</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -1696,14 +1944,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>144</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -1713,14 +1961,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>144</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -1730,14 +1978,14 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>144</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -1747,17 +1995,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="0" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>4066</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>136</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -1767,14 +2015,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>154</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -1784,14 +2032,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>158</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -1801,14 +2049,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>162</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -1818,14 +2066,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>166</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -1835,14 +2083,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="0" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>170</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -1852,14 +2100,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>175</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -1869,77 +2117,71 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.tme.eu/pl/details/smd1206-220k/rezystory-smd-1206/royal-ohm/1206s4j0224t5e/"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://www.tme.eu/pl/details/smd1206-2k2/rezystory-smd-1206/royal-ohm/1206s4j0222t5e/"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://www.tme.eu/pl/details/smd1206-10k/rezystory-smd-1206/royal-ohm/1206s4j0103t5e/"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://www.tme.eu/pl/details/smd1206-10k/rezystory-smd-1206/royal-ohm/1206s4j0103t5e/"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://www.tme.eu/pl/details/smd1206-10k/rezystory-smd-1206/royal-ohm/1206s4j0103t5e/"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://www.tme.eu/pl/details/smd1206-10k/rezystory-smd-1206/royal-ohm/1206s4j0103t5e/"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://www.tme.eu/pl/details/smd1206-10k/rezystory-smd-1206/royal-ohm/1206s4j0103t5e/"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://www.tme.eu/pl/details/smd1206-22r/rezystory-smd-1206/royal-ohm/1206s4j0220t5e/"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://www.tme.eu/pl/details/smd1206-22r/rezystory-smd-1206/royal-ohm/1206s4j0220t5e/"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://www.tme.eu/pl/details/smd1206-16k/rezystory-smd-1206/royal-ohm/1206s4j0163t5e/"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://www.tme.eu/pl/details/smd1206-12k/rezystory-smd-1206/royal-ohm/1206s4j0123t5e/"/>
-    <hyperlink ref="F13" r:id="rId12" display="https://www.tme.eu/pl/details/smd1206-1k/rezystory-smd-1206/royal-ohm/1206s4j0102t5e/"/>
-    <hyperlink ref="F14" r:id="rId13" display="https://www.tme.eu/pl/details/smd1206-1k/rezystory-smd-1206/royal-ohm/1206s4j0102t5e/"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://www.tme.eu/pl/details/smd1206-1k/rezystory-smd-1206/royal-ohm/1206s4j0102t5e/"/>
-    <hyperlink ref="F16" r:id="rId15" display="https://www.tme.eu/pl/details/smd1206-1k/rezystory-smd-1206/royal-ohm/1206s4j0102t5e/"/>
-    <hyperlink ref="F17" r:id="rId16" display="https://pl.mouser.com/ProductDetail/Bourns/CRS2010AFX-1001ELF?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIpobI7qqEI8Dfyt7VHVWMFw%3D%3D"/>
-    <hyperlink ref="F18" r:id="rId17" display="https://www.tme.eu/pl/details/smd1206-430r/rezystory-smd-1206/royal-ohm/1206s4j0431t5e/"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://www.tme.eu/pl/details/smd1206-1m/rezystory-smd-1206/royal-ohm/1206s4j0105t5e/"/>
-    <hyperlink ref="F20" r:id="rId19" display="https://www.tme.eu/pl/details/smd1206-1m/rezystory-smd-1206/royal-ohm/1206s4j0105t5e/"/>
-    <hyperlink ref="F21" r:id="rId20" display="https://www.tme.eu/pl/details/smd1206-1m/rezystory-smd-1206/royal-ohm/1206s4j0105t5e/"/>
-    <hyperlink ref="F22" r:id="rId21" display="https://www.tme.eu/pl/details/smd1206-470r/rezystory-smd-1206/royal-ohm/1206s4j0471t5e/"/>
-    <hyperlink ref="F23" r:id="rId22" display="https://www.tme.eu/pl/details/smd1206-270r/rezystory-smd-1206/royal-ohm/1206s4j0271t5e/"/>
-    <hyperlink ref="F24" r:id="rId23" display="https://www.tme.eu/pl/details/rc1206fr-0722k/rezystory-smd-1206/yageo/rc1206fr-0722kl/"/>
-    <hyperlink ref="F25" r:id="rId24" display="https://www.tme.eu/pl/details/prp185-470r-a/potencjometry-jednoobrotowe-weglowe/telpod/prp185-470r-a16p1/"/>
-    <hyperlink ref="F26" r:id="rId25" display="https://www.tme.eu/pl/details/t910y-100k/potencjometry-tht-wieloobrotowe-3-8-cala/sr-passives/"/>
-    <hyperlink ref="F27" r:id="rId26" display="https://www.tme.eu/pl/details/c0603c683k5rac/kondensatory-mlcc-smd-0603/kemet/c0603c683k5ractu/"/>
-    <hyperlink ref="F28" r:id="rId27" display="https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F29" r:id="rId28" display="https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F30" r:id="rId29" display="https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F31" r:id="rId30" display="https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F32" r:id="rId31" display="https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F33" r:id="rId32" display="https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F34" r:id="rId33" display="https://www.tme.eu/pl/details/km2200_25/kondensatory-elektrolityczne-tht-105degc/samxon/km-2200u-25v/"/>
-    <hyperlink ref="F35" r:id="rId34" display="https://www.tme.eu/pl/details/rc1e476m6l006vr/kondensatory-elektrolityczne-smd-105degc/samwha/"/>
-    <hyperlink ref="F36" r:id="rId35" display="https://www.tme.eu/pl/details/rc1e476m6l006vr/kondensatory-elektrolityczne-smd-105degc/samwha/"/>
-    <hyperlink ref="F37" r:id="rId36" display="https://www.tme.eu/pl/details/rc1e476m6l006vr/kondensatory-elektrolityczne-smd-105degc/samwha/"/>
-    <hyperlink ref="F38" r:id="rId37" display="https://www.tme.eu/pl/details/rc1e476m6l006vr/kondensatory-elektrolityczne-smd-105degc/samwha/"/>
-    <hyperlink ref="F39" r:id="rId38" display="https://www.tme.eu/pl/details/cl10b104ka8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F40" r:id="rId39" display="https://www.tme.eu/pl/details/cl10b104ka8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F41" r:id="rId40" display="https://www.tme.eu/pl/details/cl10b391kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F42" r:id="rId41" display="https://www.tme.eu/pl/details/cl10b224ka8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F43" r:id="rId42" display="https://www.tme.eu/pl/details/cl10b223kb8nnnc/kondensatory-mlcc-smd-0603/samsung/"/>
-    <hyperlink ref="F44" r:id="rId43" display="https://www.tme.eu/pl/details/ll-s194pvc-v1-2b/diody-led-smd-kolorowe/lucky-light/"/>
-    <hyperlink ref="F45" r:id="rId44" display="https://pl.mouser.com/ProductDetail/ON-Semiconductor-Fairchild/1N4148WS?qs=sGAEpiMZZMtoHjESLttvkr4bXZrJfFziTdC5C0Y1oek%3D"/>
-    <hyperlink ref="F46" r:id="rId45" display="https://pl.mouser.com/ProductDetail/ON-Semiconductor-Fairchild/1N4148WS?qs=sGAEpiMZZMtoHjESLttvkr4bXZrJfFziTdC5C0Y1oek%3D"/>
-    <hyperlink ref="F47" r:id="rId46" display="https://www.tme.eu/pl/details/bc807-16-dio/tranzystory-pnp-smd/diotec-semiconductor/bc807-16/"/>
-    <hyperlink ref="F48" r:id="rId47" display="https://www.tme.eu/pl/details/bc807-16-dio/tranzystory-pnp-smd/diotec-semiconductor/bc807-16/"/>
-    <hyperlink ref="F49" r:id="rId48" display="https://www.tme.eu/pl/details/bc807-16-dio/tranzystory-pnp-smd/diotec-semiconductor/bc807-16/"/>
-    <hyperlink ref="F50" r:id="rId49" display="https://www.tme.eu/pl/details/tn2540n8-g/tranzystory-z-kanalem-n-smd/microchip-supertex/"/>
-    <hyperlink ref="F51" r:id="rId50" display="https://www.tme.eu/pl/details/cny17-1s/transoptory-wyjscie-analogowe/liteon/"/>
-    <hyperlink ref="F52" r:id="rId51" display="https://www.digikey.com/product-detail/en/NE555DR/296-6501-1-ND/372490?utm_campaign=buynow&amp;WT.z_cid=ref_octopart_dkc_buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;site=us&amp;utm_source=octopart"/>
-    <hyperlink ref="F53" r:id="rId52" display="https://www.digikey.com/product-detail/en/NE555DR/296-6501-1-ND/372490?utm_campaign=buynow&amp;WT.z_cid=ref_octopart_dkc_buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;site=us&amp;utm_source=octopart"/>
-    <hyperlink ref="F54" r:id="rId53" display="https://www.digikey.com/product-detail/en/NE555DR/296-6501-1-ND/372490?utm_campaign=buynow&amp;WT.z_cid=ref_octopart_dkc_buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;site=us&amp;utm_source=octopart"/>
-    <hyperlink ref="F55" r:id="rId54" display="https://www.digikey.com/product-detail/en/NE555DR/296-6501-1-ND/372490?utm_campaign=buynow&amp;WT.z_cid=ref_octopart_dkc_buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;site=us&amp;utm_source=octopart"/>
-    <hyperlink ref="F56" r:id="rId55" display="https://pl.mouser.com/ProductDetail/Texas-Instruments/CD4066BM96?qs=sGAEpiMZZMtxrAS98ir%252Bs6Yg1tqWLu1bvUL7w2hcLiU%3D"/>
-    <hyperlink ref="F57" r:id="rId56" display="https://www.tme.eu/pl/details/l78l08acd13tr/stabilizatory-napiecia-nieregulowane/stmicroelectronics/"/>
-    <hyperlink ref="F58" r:id="rId57" display="https://www.tme.eu/pl/details/l78l05abd13tr/stabilizatory-napiecia-nieregulowane/stmicroelectronics/"/>
-    <hyperlink ref="F59" r:id="rId58" display="https://www.tme.eu/pl/details/icl7660scbaz-t/regulatory-napiecia-uklady-dc-dc/renesas-intersil/"/>
-    <hyperlink ref="F60" r:id="rId59" display="https://pl.mouser.com/ProductDetail/Texas-Instruments/NE5534DR?qs=sGAEpiMZZMtCHixnSjNA6Mrdwin7F8A2yVUSSpLzDF4%3D"/>
-    <hyperlink ref="F61" r:id="rId60" display="https://www.tme.eu/pl/details/ap4310amtr-g1/wzmacniacze-operacyjne-smd/diodes-incorporated/"/>
-    <hyperlink ref="F62" r:id="rId61" display="https://www.tme.eu/pl/details/ld-sp-2908/glosniki/loudity/"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3DFE2-7785-4B7D-844E-F87B12CA9212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66163127-2E5A-4E15-A620-5CD8009C9440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="181">
   <si>
     <t>library</t>
   </si>
@@ -304,9 +304,6 @@
     <t>https://www.tme.eu/pl/details/km2200_25/kondensatory-elektrolityczne-tht-105degc/samxon/km-2200u-25v/</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>47uF</t>
   </si>
   <si>
@@ -379,18 +376,9 @@
     <t>D1</t>
   </si>
   <si>
-    <t>3mm LED</t>
-  </si>
-  <si>
     <t>może R8 wymienic na 560Ohm</t>
   </si>
   <si>
-    <t>LL-S194PVC-V1-2B</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/ll-s194pvc-v1-2b/diody-led-smd-kolorowe/lucky-light/</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -554,6 +542,27 @@
   </si>
   <si>
     <t>https://www.tme.eu/pl/details/ld-sp-2908/glosniki/loudity/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/0603yd334kat2a/kondensatory-mlcc-smd-0603/avx/</t>
+  </si>
+  <si>
+    <t>0603YD334KAT2A</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/tlms1000-gs08/diody-led-smd-kolorowe/vishay/</t>
+  </si>
+  <si>
+    <t>TLMS1000-GS08</t>
+  </si>
+  <si>
+    <t>0603 LED</t>
   </si>
 </sst>
 </file>
@@ -613,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -625,6 +634,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1010,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,43 +1629,26 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>97</v>
+        <v>175</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,19 +1656,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
         <v>91</v>
       </c>
       <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,19 +1676,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
         <v>91</v>
       </c>
       <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,16 +1696,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>102</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,16 +1713,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
         <v>102</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
         <v>106</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>107</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,16 +1747,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
         <v>110</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>111</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,36 +1764,36 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
         <v>114</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>115</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" t="s">
         <v>118</v>
       </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
       <c r="E44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>122</v>
+        <v>179</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,16 +1801,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,16 +1818,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,16 +1835,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,16 +1852,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,16 +1869,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,19 +1886,19 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,16 +1906,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,19 +1923,19 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,16 +1943,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,16 +1960,16 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,16 +1977,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,19 +1994,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C56">
         <v>4066</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,16 +2014,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,16 +2031,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,16 +2048,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,16 +2065,16 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,33 +2082,33 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2152,34 +2146,33 @@
     <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F62" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F36" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F44" r:id="rId60" xr:uid="{13A90988-6124-477C-A384-C23F0A3D7806}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66163127-2E5A-4E15-A620-5CD8009C9440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF34FEE2-FC4F-4BA9-B641-E37D4761D2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="182">
   <si>
     <t>library</t>
   </si>
@@ -304,15 +304,6 @@
     <t>https://www.tme.eu/pl/details/km2200_25/kondensatory-elektrolityczne-tht-105degc/samxon/km-2200u-25v/</t>
   </si>
   <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>RC1E476M6L006VR</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/rc1e476m6l006vr/kondensatory-elektrolityczne-smd-105degc/samwha/</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
@@ -563,6 +554,18 @@
   </si>
   <si>
     <t>0603 LED</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>https://pl.mouser.com/ProductDetail/Panasonic/EEE-FK1H100P?qs=%2Fha2pyFadug8Pl57h5%252BWR0C8%2FaQiuvVvPnvU3KlqTZjuvyYAQz2SZg%3D%3D</t>
+  </si>
+  <si>
+    <t>EEE-FK1H100P</t>
+  </si>
+  <si>
+    <t>50V</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,59 +1639,59 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>96</v>
+        <v>180</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>96</v>
+        <v>180</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,16 +1699,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,16 +1716,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,16 +1733,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,16 +1750,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,16 +1767,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,19 +1784,19 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,16 +1804,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,16 +1821,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,16 +1838,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,16 +1855,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,19 +1889,19 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F50" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D50" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,16 +1909,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,19 +1926,19 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,16 +1946,16 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,16 +1963,16 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,16 +1980,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,19 +1997,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C56">
         <v>4066</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,16 +2017,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,16 +2034,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,16 +2051,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,16 +2068,16 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C60" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2082,33 +2085,33 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C61" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F62" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staska72\Documents\GitHub\CAM-CAD-EDA-PROJEKT-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elektronika\Semestr 7\CAMCADEDA\Projekt\CAM-CAD-EDA-PROJEKT-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF34FEE2-FC4F-4BA9-B641-E37D4761D2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="184">
   <si>
     <t>library</t>
   </si>
@@ -566,12 +565,18 @@
   </si>
   <si>
     <t>50V</t>
+  </si>
+  <si>
+    <t>282836-2</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/282836-2/listwy-zaciskowe-do-druku/te-connectivity/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1021,24 +1026,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125"/>
-    <col min="2" max="3" width="8.7109375"/>
-    <col min="4" max="4" width="25.7109375"/>
-    <col min="5" max="5" width="22.5703125"/>
-    <col min="6" max="6" width="148.5703125"/>
-    <col min="7" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="10.44140625"/>
+    <col min="2" max="3" width="8.6640625"/>
+    <col min="4" max="4" width="25.6640625"/>
+    <col min="5" max="5" width="22.5546875"/>
+    <col min="6" max="6" width="148.5546875"/>
+    <col min="7" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1543,7 +1548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1631,10 +1636,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1745,7 +1750,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1767,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1921,7 +1926,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1941,7 +1946,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1975,7 +1980,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1992,7 +1997,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2102,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>166</v>
       </c>
@@ -2114,68 +2119,83 @@
         <v>170</v>
       </c>
     </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F62" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F36" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F44" r:id="rId60" xr:uid="{13A90988-6124-477C-A384-C23F0A3D7806}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F37" r:id="rId34"/>
+    <hyperlink ref="F38" r:id="rId35"/>
+    <hyperlink ref="F39" r:id="rId36"/>
+    <hyperlink ref="F40" r:id="rId37"/>
+    <hyperlink ref="F41" r:id="rId38"/>
+    <hyperlink ref="F42" r:id="rId39"/>
+    <hyperlink ref="F43" r:id="rId40"/>
+    <hyperlink ref="F45" r:id="rId41"/>
+    <hyperlink ref="F46" r:id="rId42"/>
+    <hyperlink ref="F47" r:id="rId43"/>
+    <hyperlink ref="F48" r:id="rId44"/>
+    <hyperlink ref="F49" r:id="rId45"/>
+    <hyperlink ref="F50" r:id="rId46"/>
+    <hyperlink ref="F51" r:id="rId47"/>
+    <hyperlink ref="F52" r:id="rId48"/>
+    <hyperlink ref="F53" r:id="rId49"/>
+    <hyperlink ref="F54" r:id="rId50"/>
+    <hyperlink ref="F55" r:id="rId51"/>
+    <hyperlink ref="F56" r:id="rId52"/>
+    <hyperlink ref="F57" r:id="rId53"/>
+    <hyperlink ref="F58" r:id="rId54"/>
+    <hyperlink ref="F59" r:id="rId55"/>
+    <hyperlink ref="F60" r:id="rId56"/>
+    <hyperlink ref="F61" r:id="rId57"/>
+    <hyperlink ref="F62" r:id="rId58"/>
+    <hyperlink ref="F36" r:id="rId59"/>
+    <hyperlink ref="F44" r:id="rId60"/>
+    <hyperlink ref="F63" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
   <si>
     <t>library</t>
   </si>
@@ -189,12 +189,6 @@
     <t>R14</t>
   </si>
   <si>
-    <t>1206S4J0471T5E</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/smd1206-470r/rezystory-smd-1206/royal-ohm/1206s4j0471t5e/</t>
-  </si>
-  <si>
     <t>R18</t>
   </si>
   <si>
@@ -571,6 +565,18 @@
   </si>
   <si>
     <t>https://www.tme.eu/pl/details/282836-2/listwy-zaciskowe-do-druku/te-connectivity/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/smd1206-5k1/rezystory-smd-1206/royal-ohm/1206s4j0512t5e/</t>
+  </si>
+  <si>
+    <t>1206S4J0512T5E</t>
+  </si>
+  <si>
+    <t>5,1k</t>
+  </si>
+  <si>
+    <t>Rozladowujacy bramke</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,13 +1264,13 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1320,7 +1326,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1413,14 +1419,17 @@
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22">
-        <v>470</v>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,53 +1437,33 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25">
-        <v>470</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1482,238 +1471,241 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E35" t="s">
         <v>90</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" t="s">
         <v>178</v>
       </c>
-      <c r="D38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" t="s">
-        <v>180</v>
-      </c>
       <c r="F38" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>100</v>
+        <v>178</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1721,16 +1713,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1738,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1755,16 +1747,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,53 +1764,53 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="s">
         <v>110</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>117</v>
-      </c>
       <c r="E45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>119</v>
+        <v>174</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,16 +1818,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E46" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,16 +1835,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1860,16 +1852,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,260 +1869,277 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E49" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56">
-        <v>4066</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="C57">
+        <v>4066</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C61" t="s">
+      <c r="F62" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="E63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>183</v>
+      <c r="E64" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2146,58 +2155,56 @@
     <hyperlink ref="F10" r:id="rId9"/>
     <hyperlink ref="F11" r:id="rId10"/>
     <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F37" r:id="rId34"/>
-    <hyperlink ref="F38" r:id="rId35"/>
-    <hyperlink ref="F39" r:id="rId36"/>
-    <hyperlink ref="F40" r:id="rId37"/>
-    <hyperlink ref="F41" r:id="rId38"/>
-    <hyperlink ref="F42" r:id="rId39"/>
-    <hyperlink ref="F43" r:id="rId40"/>
-    <hyperlink ref="F45" r:id="rId41"/>
-    <hyperlink ref="F46" r:id="rId42"/>
-    <hyperlink ref="F47" r:id="rId43"/>
-    <hyperlink ref="F48" r:id="rId44"/>
-    <hyperlink ref="F49" r:id="rId45"/>
-    <hyperlink ref="F50" r:id="rId46"/>
-    <hyperlink ref="F51" r:id="rId47"/>
-    <hyperlink ref="F52" r:id="rId48"/>
-    <hyperlink ref="F53" r:id="rId49"/>
-    <hyperlink ref="F54" r:id="rId50"/>
-    <hyperlink ref="F55" r:id="rId51"/>
-    <hyperlink ref="F56" r:id="rId52"/>
-    <hyperlink ref="F57" r:id="rId53"/>
-    <hyperlink ref="F58" r:id="rId54"/>
-    <hyperlink ref="F59" r:id="rId55"/>
-    <hyperlink ref="F60" r:id="rId56"/>
-    <hyperlink ref="F61" r:id="rId57"/>
-    <hyperlink ref="F62" r:id="rId58"/>
-    <hyperlink ref="F36" r:id="rId59"/>
-    <hyperlink ref="F44" r:id="rId60"/>
-    <hyperlink ref="F63" r:id="rId61"/>
+    <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F20" r:id="rId18"/>
+    <hyperlink ref="F21" r:id="rId19"/>
+    <hyperlink ref="F23" r:id="rId20"/>
+    <hyperlink ref="F24" r:id="rId21"/>
+    <hyperlink ref="F26" r:id="rId22"/>
+    <hyperlink ref="F27" r:id="rId23"/>
+    <hyperlink ref="F28" r:id="rId24"/>
+    <hyperlink ref="F29" r:id="rId25"/>
+    <hyperlink ref="F30" r:id="rId26"/>
+    <hyperlink ref="F31" r:id="rId27"/>
+    <hyperlink ref="F32" r:id="rId28"/>
+    <hyperlink ref="F33" r:id="rId29"/>
+    <hyperlink ref="F34" r:id="rId30"/>
+    <hyperlink ref="F35" r:id="rId31"/>
+    <hyperlink ref="F38" r:id="rId32"/>
+    <hyperlink ref="F39" r:id="rId33"/>
+    <hyperlink ref="F40" r:id="rId34"/>
+    <hyperlink ref="F41" r:id="rId35"/>
+    <hyperlink ref="F42" r:id="rId36"/>
+    <hyperlink ref="F43" r:id="rId37"/>
+    <hyperlink ref="F44" r:id="rId38"/>
+    <hyperlink ref="F46" r:id="rId39"/>
+    <hyperlink ref="F47" r:id="rId40"/>
+    <hyperlink ref="F48" r:id="rId41"/>
+    <hyperlink ref="F49" r:id="rId42"/>
+    <hyperlink ref="F50" r:id="rId43"/>
+    <hyperlink ref="F51" r:id="rId44"/>
+    <hyperlink ref="F52" r:id="rId45"/>
+    <hyperlink ref="F53" r:id="rId46"/>
+    <hyperlink ref="F54" r:id="rId47"/>
+    <hyperlink ref="F55" r:id="rId48"/>
+    <hyperlink ref="F56" r:id="rId49"/>
+    <hyperlink ref="F57" r:id="rId50"/>
+    <hyperlink ref="F58" r:id="rId51"/>
+    <hyperlink ref="F59" r:id="rId52"/>
+    <hyperlink ref="F60" r:id="rId53"/>
+    <hyperlink ref="F61" r:id="rId54"/>
+    <hyperlink ref="F62" r:id="rId55"/>
+    <hyperlink ref="F63" r:id="rId56"/>
+    <hyperlink ref="F37" r:id="rId57"/>
+    <hyperlink ref="F45" r:id="rId58"/>
+    <hyperlink ref="F64" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId60"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="187">
   <si>
     <t>library</t>
   </si>
@@ -240,33 +240,18 @@
     <t>https://www.tme.eu/pl/details/t910y-100k/potencjometry-tht-wieloobrotowe-3-8-cala/sr-passives/</t>
   </si>
   <si>
-    <t>? Upverter</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>68nF</t>
   </si>
   <si>
-    <t>C0603C683K5RACTU</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/c0603c683k5rac/kondensatory-mlcc-smd-0603/kemet/c0603c683k5ractu/</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
     <t>10nF</t>
   </si>
   <si>
-    <t>CL10B103KB8NNNC</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/cl10b103kb8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -327,36 +312,18 @@
     <t>390pF</t>
   </si>
   <si>
-    <t>CL10B391KB8NNNC</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/cl10b391kb8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
-  </si>
-  <si>
     <t>C15</t>
   </si>
   <si>
     <t>220nF</t>
   </si>
   <si>
-    <t>CL10B224KA8NNNC</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/cl10b224ka8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
-  </si>
-  <si>
     <t>C16</t>
   </si>
   <si>
     <t>22nF</t>
   </si>
   <si>
-    <t>CL10B223KB8NNNC</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/cl10b223kb8nnnc/kondensatory-mlcc-smd-0603/samsung/</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -534,9 +501,6 @@
     <t>0603YD334KAT2A</t>
   </si>
   <si>
-    <t>16V</t>
-  </si>
-  <si>
     <t>330nF</t>
   </si>
   <si>
@@ -552,15 +516,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>https://pl.mouser.com/ProductDetail/Panasonic/EEE-FK1H100P?qs=%2Fha2pyFadug8Pl57h5%252BWR0C8%2FaQiuvVvPnvU3KlqTZjuvyYAQz2SZg%3D%3D</t>
-  </si>
-  <si>
-    <t>EEE-FK1H100P</t>
-  </si>
-  <si>
-    <t>50V</t>
-  </si>
-  <si>
     <t>282836-2</t>
   </si>
   <si>
@@ -577,6 +532,54 @@
   </si>
   <si>
     <t>Rozladowujacy bramke</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cc-68n/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
+  </si>
+  <si>
+    <t>CC-68N</t>
+  </si>
+  <si>
+    <t>nie może być MLCC bo pogarsza</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cc-10n/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
+  </si>
+  <si>
+    <t>CC-10N</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cc-470/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
+  </si>
+  <si>
+    <t>CC-470</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cm-220n/kondensatory-mlcc-tht/sr-passives/</t>
+  </si>
+  <si>
+    <t>CM-220N</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cc-22n/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
+  </si>
+  <si>
+    <t>CC-22N</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>UUD1E470MCL1GS</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/nichicon/UUD1E470MCL1GS/493-2273-2-ND/590014</t>
+  </si>
+  <si>
+    <t>C18</t>
   </si>
 </sst>
 </file>
@@ -1035,1176 +1038,1219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625"/>
-    <col min="2" max="3" width="8.6640625"/>
-    <col min="4" max="4" width="25.6640625"/>
-    <col min="5" max="5" width="22.5546875"/>
-    <col min="6" max="6" width="148.5546875"/>
-    <col min="7" max="1025" width="8.6640625"/>
+    <col min="1" max="2" width="8.6640625"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875"/>
+    <col min="5" max="5" width="148.5546875"/>
+    <col min="7" max="1024" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18">
-        <v>430</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23">
-        <v>270</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>470</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>470</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>430</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>270</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="2"/>
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>169</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>177</v>
+        <v>17</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" t="s">
-        <v>176</v>
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>177</v>
+        <v>24</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>103</v>
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>111</v>
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>173</v>
+        <v>33</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>117</v>
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" t="s">
         <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" t="s">
         <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" t="s">
         <v>59</v>
-      </c>
-      <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57">
-        <v>4066</v>
-      </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" t="s">
         <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>148</v>
+        <v>130</v>
+      </c>
+      <c r="B59">
+        <v>4066</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" t="s">
         <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
       <c r="B63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
       <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>180</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>181</v>
+        <v>150</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F63">
+    <sortCondition ref="A2"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F17" r:id="rId15"/>
-    <hyperlink ref="F18" r:id="rId16"/>
-    <hyperlink ref="F19" r:id="rId17"/>
-    <hyperlink ref="F20" r:id="rId18"/>
-    <hyperlink ref="F21" r:id="rId19"/>
-    <hyperlink ref="F23" r:id="rId20"/>
-    <hyperlink ref="F24" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F27" r:id="rId23"/>
-    <hyperlink ref="F28" r:id="rId24"/>
-    <hyperlink ref="F29" r:id="rId25"/>
-    <hyperlink ref="F30" r:id="rId26"/>
-    <hyperlink ref="F31" r:id="rId27"/>
-    <hyperlink ref="F32" r:id="rId28"/>
-    <hyperlink ref="F33" r:id="rId29"/>
-    <hyperlink ref="F34" r:id="rId30"/>
-    <hyperlink ref="F35" r:id="rId31"/>
-    <hyperlink ref="F38" r:id="rId32"/>
-    <hyperlink ref="F39" r:id="rId33"/>
-    <hyperlink ref="F40" r:id="rId34"/>
-    <hyperlink ref="F41" r:id="rId35"/>
-    <hyperlink ref="F42" r:id="rId36"/>
-    <hyperlink ref="F43" r:id="rId37"/>
-    <hyperlink ref="F44" r:id="rId38"/>
-    <hyperlink ref="F46" r:id="rId39"/>
-    <hyperlink ref="F47" r:id="rId40"/>
-    <hyperlink ref="F48" r:id="rId41"/>
-    <hyperlink ref="F49" r:id="rId42"/>
-    <hyperlink ref="F50" r:id="rId43"/>
-    <hyperlink ref="F51" r:id="rId44"/>
-    <hyperlink ref="F52" r:id="rId45"/>
-    <hyperlink ref="F53" r:id="rId46"/>
-    <hyperlink ref="F54" r:id="rId47"/>
-    <hyperlink ref="F55" r:id="rId48"/>
-    <hyperlink ref="F56" r:id="rId49"/>
-    <hyperlink ref="F57" r:id="rId50"/>
-    <hyperlink ref="F58" r:id="rId51"/>
-    <hyperlink ref="F59" r:id="rId52"/>
-    <hyperlink ref="F60" r:id="rId53"/>
-    <hyperlink ref="F61" r:id="rId54"/>
-    <hyperlink ref="F62" r:id="rId55"/>
-    <hyperlink ref="F63" r:id="rId56"/>
-    <hyperlink ref="F37" r:id="rId57"/>
-    <hyperlink ref="F45" r:id="rId58"/>
-    <hyperlink ref="F64" r:id="rId59"/>
+    <hyperlink ref="E26" r:id="rId1"/>
+    <hyperlink ref="E37" r:id="rId2"/>
+    <hyperlink ref="E42" r:id="rId3"/>
+    <hyperlink ref="E46" r:id="rId4"/>
+    <hyperlink ref="E36" r:id="rId5"/>
+    <hyperlink ref="E38" r:id="rId6"/>
+    <hyperlink ref="E40" r:id="rId7"/>
+    <hyperlink ref="E43" r:id="rId8"/>
+    <hyperlink ref="E39" r:id="rId9"/>
+    <hyperlink ref="E44" r:id="rId10"/>
+    <hyperlink ref="E45" r:id="rId11"/>
+    <hyperlink ref="E27" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="E33" r:id="rId14"/>
+    <hyperlink ref="E48" r:id="rId15"/>
+    <hyperlink ref="E29" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="E32" r:id="rId18"/>
+    <hyperlink ref="E34" r:id="rId19"/>
+    <hyperlink ref="E35" r:id="rId20"/>
+    <hyperlink ref="E41" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E25" r:id="rId23"/>
+    <hyperlink ref="E17" r:id="rId24"/>
+    <hyperlink ref="E3" r:id="rId25"/>
+    <hyperlink ref="E4" r:id="rId26"/>
+    <hyperlink ref="E21" r:id="rId27"/>
+    <hyperlink ref="E22" r:id="rId28"/>
+    <hyperlink ref="E50" r:id="rId29"/>
+    <hyperlink ref="E52" r:id="rId30"/>
+    <hyperlink ref="E53" r:id="rId31"/>
+    <hyperlink ref="E51" r:id="rId32"/>
+    <hyperlink ref="E54" r:id="rId33"/>
+    <hyperlink ref="E55" r:id="rId34"/>
+    <hyperlink ref="E57" r:id="rId35"/>
+    <hyperlink ref="E58" r:id="rId36"/>
+    <hyperlink ref="E56" r:id="rId37"/>
+    <hyperlink ref="E59" r:id="rId38"/>
+    <hyperlink ref="E60" r:id="rId39"/>
+    <hyperlink ref="E61" r:id="rId40"/>
+    <hyperlink ref="E62" r:id="rId41"/>
+    <hyperlink ref="E63" r:id="rId42"/>
+    <hyperlink ref="E64" r:id="rId43"/>
+    <hyperlink ref="E49" r:id="rId44"/>
+    <hyperlink ref="E20" r:id="rId45"/>
+    <hyperlink ref="E24" r:id="rId46"/>
+    <hyperlink ref="E8" r:id="rId47"/>
+    <hyperlink ref="E10" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId60"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="184">
   <si>
     <t>library</t>
   </si>
@@ -219,12 +219,6 @@
     <t>obrotowy/liniowy</t>
   </si>
   <si>
-    <t>PRP185-470R-A16P1</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/prp185-470r-a/potencjometry-jednoobrotowe-weglowe/telpod/prp185-470r-a16p1/</t>
-  </si>
-  <si>
     <t>PR1</t>
   </si>
   <si>
@@ -234,12 +228,6 @@
     <t>wieloobrotowy</t>
   </si>
   <si>
-    <t>T910Y-100K</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/t910y-100k/potencjometry-tht-wieloobrotowe-3-8-cala/sr-passives/</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -534,39 +522,21 @@
     <t>Rozladowujacy bramke</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/cc-68n/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
-  </si>
-  <si>
-    <t>CC-68N</t>
-  </si>
-  <si>
     <t>nie może być MLCC bo pogarsza</t>
   </si>
   <si>
     <t>https://www.tme.eu/pl/details/cc-10n/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
   </si>
   <si>
-    <t>CC-10N</t>
-  </si>
-  <si>
     <t>https://www.tme.eu/pl/details/cc-470/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
   </si>
   <si>
-    <t>CC-470</t>
-  </si>
-  <si>
     <t>https://www.tme.eu/pl/details/cm-220n/kondensatory-mlcc-tht/sr-passives/</t>
   </si>
   <si>
-    <t>CM-220N</t>
-  </si>
-  <si>
     <t>https://www.tme.eu/pl/details/cc-22n/kondensatory-ceramiczne-tht-50v/sr-passives/</t>
   </si>
   <si>
-    <t>CC-22N</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
@@ -580,6 +550,27 @@
   </si>
   <si>
     <t>C18</t>
+  </si>
+  <si>
+    <t> 3296W-1-104LF</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/en/details/3296w-1-104lf/3-8-inch-multiturn-tht-trimmers/bourns/</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>T910W-50R</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/en/details/t910w-50r/3-8-inch-multiturn-tht-trimmers/sr-passives/</t>
+  </si>
+  <si>
+    <t>VJ0603Y683KXJCW1BC</t>
+  </si>
+  <si>
+    <t>VJ0603Y103KNAAO</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1030,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,33 +1064,31 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1107,16 +1096,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1124,19 +1113,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1144,19 +1133,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1164,19 +1153,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1184,19 +1170,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1204,19 +1187,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1224,33 +1204,30 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1258,119 +1235,109 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -1378,53 +1345,53 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
@@ -1432,16 +1399,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -1449,16 +1416,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -1466,7 +1433,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="B23">
         <v>470</v>
@@ -1475,10 +1442,10 @@
         <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>180</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1492,27 +1459,27 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
       <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>177</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -1611,7 +1578,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
         <v>37</v>
@@ -1883,13 +1850,13 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1917,33 +1884,33 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1951,19 +1918,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F51" t="s">
         <v>59</v>
@@ -1971,16 +1938,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1988,16 +1955,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -2005,16 +1972,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -2022,19 +1989,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
         <v>59</v>
@@ -2042,16 +2009,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -2059,16 +2026,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>59</v>
@@ -2076,16 +2043,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
         <v>59</v>
@@ -2093,19 +2060,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59">
         <v>4066</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -2113,16 +2080,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F60" t="s">
         <v>59</v>
@@ -2130,16 +2097,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
         <v>59</v>
@@ -2147,16 +2114,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -2164,16 +2131,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
         <v>59</v>
@@ -2181,16 +2148,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -2222,33 +2189,33 @@
     <hyperlink ref="E34" r:id="rId19"/>
     <hyperlink ref="E35" r:id="rId20"/>
     <hyperlink ref="E41" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E25" r:id="rId23"/>
-    <hyperlink ref="E17" r:id="rId24"/>
-    <hyperlink ref="E3" r:id="rId25"/>
-    <hyperlink ref="E4" r:id="rId26"/>
-    <hyperlink ref="E21" r:id="rId27"/>
-    <hyperlink ref="E22" r:id="rId28"/>
-    <hyperlink ref="E50" r:id="rId29"/>
-    <hyperlink ref="E52" r:id="rId30"/>
-    <hyperlink ref="E53" r:id="rId31"/>
-    <hyperlink ref="E51" r:id="rId32"/>
-    <hyperlink ref="E54" r:id="rId33"/>
-    <hyperlink ref="E55" r:id="rId34"/>
-    <hyperlink ref="E57" r:id="rId35"/>
-    <hyperlink ref="E58" r:id="rId36"/>
-    <hyperlink ref="E56" r:id="rId37"/>
-    <hyperlink ref="E59" r:id="rId38"/>
-    <hyperlink ref="E60" r:id="rId39"/>
-    <hyperlink ref="E61" r:id="rId40"/>
-    <hyperlink ref="E62" r:id="rId41"/>
-    <hyperlink ref="E63" r:id="rId42"/>
-    <hyperlink ref="E64" r:id="rId43"/>
-    <hyperlink ref="E49" r:id="rId44"/>
-    <hyperlink ref="E20" r:id="rId45"/>
-    <hyperlink ref="E24" r:id="rId46"/>
-    <hyperlink ref="E8" r:id="rId47"/>
-    <hyperlink ref="E10" r:id="rId48"/>
+    <hyperlink ref="E17" r:id="rId22"/>
+    <hyperlink ref="E3" r:id="rId23"/>
+    <hyperlink ref="E4" r:id="rId24"/>
+    <hyperlink ref="E21" r:id="rId25"/>
+    <hyperlink ref="E22" r:id="rId26"/>
+    <hyperlink ref="E50" r:id="rId27"/>
+    <hyperlink ref="E52" r:id="rId28"/>
+    <hyperlink ref="E53" r:id="rId29"/>
+    <hyperlink ref="E51" r:id="rId30"/>
+    <hyperlink ref="E54" r:id="rId31"/>
+    <hyperlink ref="E55" r:id="rId32"/>
+    <hyperlink ref="E57" r:id="rId33"/>
+    <hyperlink ref="E58" r:id="rId34"/>
+    <hyperlink ref="E56" r:id="rId35"/>
+    <hyperlink ref="E59" r:id="rId36"/>
+    <hyperlink ref="E60" r:id="rId37"/>
+    <hyperlink ref="E61" r:id="rId38"/>
+    <hyperlink ref="E62" r:id="rId39"/>
+    <hyperlink ref="E63" r:id="rId40"/>
+    <hyperlink ref="E64" r:id="rId41"/>
+    <hyperlink ref="E49" r:id="rId42"/>
+    <hyperlink ref="E20" r:id="rId43"/>
+    <hyperlink ref="E24" r:id="rId44"/>
+    <hyperlink ref="E8" r:id="rId45"/>
+    <hyperlink ref="E10" r:id="rId46"/>
+    <hyperlink ref="E25" r:id="rId47"/>
+    <hyperlink ref="E23" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="991"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bałagan" sheetId="1" r:id="rId1"/>
+    <sheet name="Porządek" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="248">
   <si>
     <t>library</t>
   </si>
@@ -297,9 +298,6 @@
     <t>C14</t>
   </si>
   <si>
-    <t>390pF</t>
-  </si>
-  <si>
     <t>C15</t>
   </si>
   <si>
@@ -571,13 +569,208 @@
   </si>
   <si>
     <t>VJ0603Y103KNAAO</t>
+  </si>
+  <si>
+    <t>470pF</t>
+  </si>
+  <si>
+    <t>OK.</t>
+  </si>
+  <si>
+    <t>CC-470</t>
+  </si>
+  <si>
+    <t>Desygnator</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Nie dotyczy</t>
+  </si>
+  <si>
+    <t>282836-2@TME</t>
+  </si>
+  <si>
+    <t>Female Header, Pitch 5 mm, 1 x 2 Position, Height 10 mm, Tail Length 3.5 mm, Rohs, Bulk</t>
+  </si>
+  <si>
+    <t>2200 uF</t>
+  </si>
+  <si>
+    <t>KM 2200U/25V@TME</t>
+  </si>
+  <si>
+    <t>THT; 2200uF; 25VDC; Ø12,5x20mm; ±20%</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT_Library (Cap Electrolytic) </t>
+  </si>
+  <si>
+    <t>1206S4J0512T5E@TME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT_Library (Res) (R1206) </t>
+  </si>
+  <si>
+    <t>LED; SMD; 0603; czerwony; 1,8÷4mcd; 1,6x0,8x0,6mm; 80°; 1,8÷2,6V</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>L78L08ACD13TR@TME</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-0244-00234-1)</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-2000-07254-1)</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-1684-00017-1)</t>
+  </si>
+  <si>
+    <t>Stabilizator napięcia; liniowy,nieregulowany; 8V; 0,1A; SO8; SMD</t>
+  </si>
+  <si>
+    <t>SMD; 1206; 5,1kΩ; 0,25W; ±5%; -55÷125°C</t>
+  </si>
+  <si>
+    <t>47 uF</t>
+  </si>
+  <si>
+    <t>Aluminum Electrolytic Capacitor, UD Series, Low Impedance, 47 uF, 25 V, + / - 20%, -55 to 105 degC, Chip Type, 6.3 x 5.8 mm D x L, Pb-Free, Reel</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-0687-00039-1)</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC@TME</t>
+  </si>
+  <si>
+    <t>100 nF</t>
+  </si>
+  <si>
+    <t>ceramiczny; MLCC; 100nF; 25V; X7R; ±10%; SMD; 0603</t>
+  </si>
+  <si>
+    <t>MT_Library (Cap) (0603)</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>ICL7660SCBA</t>
+  </si>
+  <si>
+    <t>Charge Pump Switching Regulator IC Positive or Negative Fixed, 1.5 to 12 V, 0 to 70 degC, RoHS, Tube</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-2000-06437-1)</t>
+  </si>
+  <si>
+    <t>330 nF</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-2006-04538-1) można również zastosować MT_Library (Cap) (0603)</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>L78L05ABD13TR@TME</t>
+  </si>
+  <si>
+    <t>Positive Voltage Regulator, 5V, 8-Pin SO, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-0244-00242-1)</t>
+  </si>
+  <si>
+    <t>1_ZASILANIE</t>
+  </si>
+  <si>
+    <t>2_Astabilny Generator Sygnału</t>
+  </si>
+  <si>
+    <t>10 nF</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-2006-01968-1) można również zastosować MT_Library (Cap) (0603)</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>NE555D</t>
+  </si>
+  <si>
+    <t>Altium Vault (NE555)</t>
+  </si>
+  <si>
+    <t>Precision Timer, 4.5 to 16 V, 0 to 70 degC, 8-Pin SOIC (D), Green (RoHS &amp; no Sb/Br), Tube</t>
+  </si>
+  <si>
+    <t>68 nF</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-2006-01832-1)</t>
+  </si>
+  <si>
+    <t>1206S4J0224T5E@TME</t>
+  </si>
+  <si>
+    <t>MT_Library (Res) (R1206)</t>
+  </si>
+  <si>
+    <t>1206S4J0222T5E@TME</t>
+  </si>
+  <si>
+    <t>1206S4J0103T5E@TME</t>
+  </si>
+  <si>
+    <t>BC807-25LT1G</t>
+  </si>
+  <si>
+    <t>General Purpose Transistor, PNP Silicon, 3-Pin SOT-23, Pb-Free, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-1048-00691-1)</t>
+  </si>
+  <si>
+    <t>1206S4J0220T5E@TME</t>
+  </si>
+  <si>
+    <t>Rozładowujący bramke</t>
+  </si>
+  <si>
+    <t>1206S4J0102T5E@TME</t>
+  </si>
+  <si>
+    <t>N-Channel Enhancement-Mode Vertical DMOS FET, 2 V, 1 A, 12 Ohm, -55 to 150 degC, 3-Pin SOT-89, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-2000-07270-1)</t>
+  </si>
+  <si>
+    <t>3_Sterowanie kluczem</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -608,20 +801,157 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -630,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -644,12 +974,903 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="57">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -728,6 +1949,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C3:I17" totalsRowShown="0" headerRowDxfId="38" dataDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+  <autoFilter ref="C3:I17"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Desygnator" dataDxfId="45" totalsRowDxfId="56"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="44" totalsRowDxfId="55"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="43" totalsRowDxfId="54"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="42" totalsRowDxfId="53"/>
+    <tableColumn id="6" name="Link" dataDxfId="41" totalsRowDxfId="52" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="40" totalsRowDxfId="51"/>
+    <tableColumn id="8" name="Status" dataDxfId="39" totalsRowDxfId="50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="C20:I30" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+  <autoFilter ref="C20:I30"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Desygnator" dataDxfId="31" totalsRowDxfId="32"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="29" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="27" totalsRowDxfId="28"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="25" totalsRowDxfId="26"/>
+    <tableColumn id="6" name="Link" dataDxfId="23" totalsRowDxfId="24" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="21" totalsRowDxfId="22"/>
+    <tableColumn id="8" name="Status" dataDxfId="19" totalsRowDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela157" displayName="Tabela157" ref="C33:I43" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="C33:I43"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Desygnator" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Link" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Status" dataDxfId="0" totalsRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,10 +2339,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1116,16 +2385,16 @@
         <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1136,33 +2405,36 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>169</v>
+      <c r="B7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1170,16 +2442,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1187,16 +2459,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1204,16 +2476,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,10 +2496,10 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1241,10 +2513,10 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
@@ -1259,10 +2531,10 @@
         <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
@@ -1277,10 +2549,10 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
@@ -1295,10 +2567,10 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
@@ -1313,10 +2585,10 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
@@ -1345,19 +2617,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
         <v>172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1365,33 +2637,33 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
         <v>97</v>
       </c>
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
@@ -1399,16 +2671,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -1416,16 +2688,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
         <v>100</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -1433,7 +2705,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23">
         <v>470</v>
@@ -1442,10 +2714,10 @@
         <v>65</v>
       </c>
       <c r="D23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -1459,10 +2731,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1476,10 +2748,10 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -1578,7 +2850,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
         <v>37</v>
@@ -1850,13 +3122,13 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -1884,33 +3156,33 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>150</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
         <v>104</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -1918,19 +3190,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
         <v>110</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>111</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F51" t="s">
         <v>59</v>
@@ -1938,16 +3210,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
         <v>105</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -1955,16 +3227,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -1972,16 +3244,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -1989,19 +3261,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C55" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F55" t="s">
         <v>59</v>
@@ -2009,16 +3281,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -2026,16 +3298,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>59</v>
@@ -2043,16 +3315,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F58" t="s">
         <v>59</v>
@@ -2060,19 +3332,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59">
         <v>4066</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -2080,16 +3352,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
         <v>129</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F60" t="s">
         <v>59</v>
@@ -2097,16 +3369,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F61" t="s">
         <v>59</v>
@@ -2114,16 +3386,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
         <v>137</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -2131,16 +3403,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
         <v>141</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F63" t="s">
         <v>59</v>
@@ -2148,16 +3420,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" t="s">
         <v>145</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -2220,4 +3492,796 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId49"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="53.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="C2" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="3:11" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="C19" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C22" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="19">
+        <v>22</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C30" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G31" s="6"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="3:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="C32" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C34" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C35" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C36" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C37" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="21"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C32:I32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId1"/>
+    <hyperlink ref="G10" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <tableParts count="3">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Bałagan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="271">
   <si>
     <t>library</t>
   </si>
@@ -764,13 +764,82 @@
   </si>
   <si>
     <t>U3</t>
+  </si>
+  <si>
+    <t>1206S4J0163T5E@TME</t>
+  </si>
+  <si>
+    <t>1206S4J0123T5E@TME</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>CMOS Quad Bilateral Switch, D0014A, LARGE T&amp;R</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-1574-00003-3)</t>
+  </si>
+  <si>
+    <t>4_Sonda + wzmacniacz</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>DO ZNALEZIENIA</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-2000-06865-1)</t>
+  </si>
+  <si>
+    <t>1W THT</t>
+  </si>
+  <si>
+    <t>1N4148WS-7-F</t>
+  </si>
+  <si>
+    <t>Fast Switching Diode, 75 V, 0.3 A, -65 to 150 degC, 2-Pin SOD323, RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-1667-00004-1)</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>MT_Library (NE5534)</t>
+  </si>
+  <si>
+    <t>3296W-1-104LF@TME</t>
+  </si>
+  <si>
+    <t>Square Trimpot(R) Trimming Potentiometer, 10 KOhm, +/- 10%, 0.5 W, -55 to 125 degC, 3-Pin THD, RoHS, Tube</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-1747-00001-1)</t>
+  </si>
+  <si>
+    <t>470 pF</t>
+  </si>
+  <si>
+    <t>CC-470@TME</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-1664-00008-1)</t>
+  </si>
+  <si>
+    <t>Raster wyprowadzeń 2.54mm</t>
+  </si>
+  <si>
+    <t>5_Wzmacniacz + integrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -820,6 +889,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -960,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -980,9 +1055,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1030,12 +1102,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="95">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1593,82 +1671,73 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF0563C1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1712,6 +1781,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1735,6 +1807,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1758,6 +1833,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1778,6 +1856,9 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1808,6 +1889,25 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1815,6 +1915,22 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1822,12 +1938,38 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1835,9 +1977,26 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1859,16 +2018,491 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1952,24 +2586,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C3:I17" totalsRowShown="0" headerRowDxfId="38" dataDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C3:I17" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="C3:I17"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Desygnator" dataDxfId="45" totalsRowDxfId="56"/>
-    <tableColumn id="3" name="Wartosc" dataDxfId="44" totalsRowDxfId="55"/>
-    <tableColumn id="4" name="Uwagi" dataDxfId="43" totalsRowDxfId="54"/>
-    <tableColumn id="5" name="Kod producenta" dataDxfId="42" totalsRowDxfId="53"/>
-    <tableColumn id="6" name="Link" dataDxfId="41" totalsRowDxfId="52" dataCellStyle="Hiperłącze"/>
-    <tableColumn id="7" name="Footprint" dataDxfId="40" totalsRowDxfId="51"/>
-    <tableColumn id="8" name="Status" dataDxfId="39" totalsRowDxfId="50"/>
+    <tableColumn id="2" name="Desygnator" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="6" name="Link" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="8" name="Status" dataDxfId="77" totalsRowDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="C20:I30" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="C20:I30" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
   <autoFilter ref="C20:I30"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Desygnator" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="6" name="Link" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="8" name="Status" dataDxfId="58" totalsRowDxfId="57"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela157" displayName="Tabela157" ref="C33:I44" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="C33:I44"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Desygnator" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="6" name="Link" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="8" name="Status" dataDxfId="39" totalsRowDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela1573" displayName="Tabela1573" ref="C47:I59" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+  <autoFilter ref="C47:I59"/>
   <tableColumns count="7">
     <tableColumn id="2" name="Desygnator" dataDxfId="31" totalsRowDxfId="32"/>
     <tableColumn id="3" name="Wartosc" dataDxfId="29" totalsRowDxfId="30"/>
@@ -1983,9 +2649,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela157" displayName="Tabela157" ref="C33:I43" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
-  <autoFilter ref="C33:I43"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela15734" displayName="Tabela15734" ref="C62:I74" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="C62:I74"/>
   <tableColumns count="7">
     <tableColumn id="2" name="Desygnator" dataDxfId="12" totalsRowDxfId="13"/>
     <tableColumn id="3" name="Wartosc" dataDxfId="10" totalsRowDxfId="11"/>
@@ -2298,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3496,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K43"/>
+  <dimension ref="C2:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3514,342 +4180,342 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="15" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3857,238 +4523,238 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="3:11" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="15" t="s">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="19" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="19" t="s">
+      <c r="G27" s="23"/>
+      <c r="H27" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>22</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="19" t="s">
+      <c r="G30" s="19"/>
+      <c r="H30" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4097,178 +4763,679 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="3:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C33" s="15" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19" t="s">
+      <c r="G35" s="19"/>
+      <c r="H35" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="19" t="s">
+      <c r="G37" s="19"/>
+      <c r="H37" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="21"/>
+    <row r="38" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="21"/>
+      <c r="C40" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="21"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="21"/>
+      <c r="C41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C42" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="21"/>
+      <c r="C43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C44" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="C46" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C47" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C49" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C51" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C52" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C53" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="18">
+        <v>430</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59" s="31"/>
+      <c r="H59" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="C61" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="20"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C68" s="21"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="20"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="20"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="20"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C74" s="17"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C61:I61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G17" r:id="rId1"/>
@@ -4278,10 +5445,12 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="991"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bałagan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="281">
   <si>
     <t>library</t>
   </si>
@@ -833,6 +833,36 @@
   </si>
   <si>
     <t>5_Wzmacniacz + integrator</t>
+  </si>
+  <si>
+    <t>T910W-50R@TME</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>TL062CDR</t>
+  </si>
+  <si>
+    <t>Dual Low-Power JFET-Input General-Purpose Operational Amplifier, 7 to 36 V, 0 to 70 degC, 8-pin SOIC (D8), Green (RoHS &amp; no Sb/Br)</t>
+  </si>
+  <si>
+    <t>Altium Vault (CMP-0017-00600-2)</t>
+  </si>
+  <si>
+    <t>1206S4J0105T5E@TME</t>
+  </si>
+  <si>
+    <t>MT_Library (Res) (1206)</t>
+  </si>
+  <si>
+    <t>CM-220N@TME</t>
+  </si>
+  <si>
+    <t>220 nF</t>
+  </si>
+  <si>
+    <t>1206S4J0271T5E@TME</t>
   </si>
 </sst>
 </file>
@@ -1102,11 +1132,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1116,6 +1146,9 @@
   <dxfs count="95">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1162,7 +1195,23 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1205,6 +1254,225 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1222,225 +1490,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1483,23 +1532,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1601,9 +1634,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1611,30 +1641,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2634,32 +2664,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela1573" displayName="Tabela1573" ref="C47:I59" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela1573" displayName="Tabela1573" ref="C47:I59" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="C47:I59"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Desygnator" dataDxfId="31" totalsRowDxfId="32"/>
-    <tableColumn id="3" name="Wartosc" dataDxfId="29" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="Uwagi" dataDxfId="27" totalsRowDxfId="28"/>
-    <tableColumn id="5" name="Kod producenta" dataDxfId="25" totalsRowDxfId="26"/>
-    <tableColumn id="6" name="Link" dataDxfId="23" totalsRowDxfId="24" dataCellStyle="Hiperłącze"/>
-    <tableColumn id="7" name="Footprint" dataDxfId="21" totalsRowDxfId="22"/>
-    <tableColumn id="8" name="Status" dataDxfId="19" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="Desygnator" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="6" name="Link" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="8" name="Status" dataDxfId="20" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela15734" displayName="Tabela15734" ref="C62:I74" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela15734" displayName="Tabela15734" ref="C62:I74" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="C62:I74"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Desygnator" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="3" name="Wartosc" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="Uwagi" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Kod producenta" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="6" name="Link" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Hiperłącze"/>
-    <tableColumn id="7" name="Footprint" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Status" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Desygnator" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Link" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="Status" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2964,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4164,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4180,15 +4210,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="14" t="s">
@@ -4523,15 +4553,15 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="3:11" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
@@ -4763,15 +4793,15 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="3:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
@@ -5005,7 +5035,7 @@
       <c r="F44" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="31"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="18" t="s">
         <v>252</v>
       </c>
@@ -5014,15 +5044,15 @@
       </c>
     </row>
     <row r="46" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" s="14" t="s">
@@ -5279,7 +5309,7 @@
       <c r="F59" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="G59" s="31"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="18" t="s">
         <v>268</v>
       </c>
@@ -5288,15 +5318,15 @@
       </c>
     </row>
     <row r="61" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
@@ -5321,68 +5351,142 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+    <row r="63" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C63" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="18">
+        <v>470</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>271</v>
+      </c>
       <c r="G63" s="19"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="H63" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C64" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>273</v>
+      </c>
       <c r="G64" s="19"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
+      <c r="C65" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="G65" s="19"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
+      <c r="H65" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C66" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>279</v>
+      </c>
       <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="G66" s="19"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="20"/>
+      <c r="H66" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
+      <c r="C67" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="G67" s="19"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="20"/>
+      <c r="H67" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C68" s="21"/>
-      <c r="D68" s="18"/>
+      <c r="C68" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
+      <c r="F68" s="18" t="s">
+        <v>242</v>
+      </c>
       <c r="G68" s="19"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="20"/>
+      <c r="H68" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
+      <c r="C69" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="18">
+        <v>270</v>
+      </c>
       <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="18" t="s">
+        <v>280</v>
+      </c>
       <c r="G69" s="23"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="20"/>
+      <c r="H69" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C70" s="17"/>
@@ -5425,7 +5529,7 @@
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
-      <c r="G74" s="31"/>
+      <c r="G74" s="30"/>
       <c r="H74" s="18"/>
       <c r="I74" s="20"/>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="282">
   <si>
     <t>library</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>1206S4J0271T5E@TME</t>
+  </si>
+  <si>
+    <t>5_Glosnik</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1146,285 @@
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="114">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2616,8 +2897,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C3:I17" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C3:I17" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <autoFilter ref="C3:I17"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Desygnator" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="6" name="Link" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="8" name="Status" dataDxfId="96" totalsRowDxfId="95"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="C20:I30" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+  <autoFilter ref="C20:I30"/>
   <tableColumns count="7">
     <tableColumn id="2" name="Desygnator" dataDxfId="89" totalsRowDxfId="88"/>
     <tableColumn id="3" name="Wartosc" dataDxfId="87" totalsRowDxfId="86"/>
@@ -2631,9 +2928,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela15" displayName="Tabela15" ref="C20:I30" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
-  <autoFilter ref="C20:I30"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela157" displayName="Tabela157" ref="C33:I44" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72" totalsRowBorderDxfId="71">
+  <autoFilter ref="C33:I44"/>
   <tableColumns count="7">
     <tableColumn id="2" name="Desygnator" dataDxfId="70" totalsRowDxfId="69"/>
     <tableColumn id="3" name="Wartosc" dataDxfId="68" totalsRowDxfId="67"/>
@@ -2647,9 +2944,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela157" displayName="Tabela157" ref="C33:I44" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
-  <autoFilter ref="C33:I44"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela1573" displayName="Tabela1573" ref="C47:I59" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="C47:I59"/>
   <tableColumns count="7">
     <tableColumn id="2" name="Desygnator" dataDxfId="51" totalsRowDxfId="50"/>
     <tableColumn id="3" name="Wartosc" dataDxfId="49" totalsRowDxfId="48"/>
@@ -2663,9 +2960,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela1573" displayName="Tabela1573" ref="C47:I59" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="C47:I59"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela15734" displayName="Tabela15734" ref="C62:I74" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="C62:I74"/>
   <tableColumns count="7">
     <tableColumn id="2" name="Desygnator" dataDxfId="32" totalsRowDxfId="31"/>
     <tableColumn id="3" name="Wartosc" dataDxfId="30" totalsRowDxfId="29"/>
@@ -2679,17 +2976,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela15734" displayName="Tabela15734" ref="C62:I74" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="C62:I74"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela157346" displayName="Tabela157346" ref="C78:I90" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="C78:I90"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Desygnator" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" name="Wartosc" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" name="Uwagi" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" name="Kod producenta" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Link" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Hiperłącze"/>
-    <tableColumn id="7" name="Footprint" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Status" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Desygnator" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="3" name="Wartosc" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="4" name="Uwagi" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Kod producenta" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Link" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="7" name="Footprint" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Status" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4192,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K74"/>
+  <dimension ref="C2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5533,8 +5830,151 @@
       <c r="H74" s="18"/>
       <c r="I74" s="20"/>
     </row>
+    <row r="77" spans="3:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="C77" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C78" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C79" s="17"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C80" s="17"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C81" s="17"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C84" s="21"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="20"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C87" s="17"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C88" s="17"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="20"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C89" s="17"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="17"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C77:I77"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C32:I32"/>
@@ -5549,12 +5989,13 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>